--- a/lowe/edd/data/BAKE$HWS.xlsx
+++ b/lowe/edd/data/BAKE$HWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1517,14 +1517,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH76"/>
+  <dimension ref="A1:JI76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1534,12 +1534,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1567,12 +1567,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1585,7 +1585,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2387,11 +2387,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3192,10 +3195,13 @@
         <v>377700</v>
       </c>
       <c r="JH9" s="11">
-        <v>385800</v>
+        <v>385900</v>
+      </c>
+      <c r="JI9" s="11">
+        <v>385100</v>
       </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3996,10 +4002,13 @@
         <v>337100</v>
       </c>
       <c r="JH10" s="11">
-        <v>347400</v>
+        <v>347500</v>
+      </c>
+      <c r="JI10" s="11">
+        <v>351500</v>
       </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4800,10 +4809,13 @@
         <v>40600</v>
       </c>
       <c r="JH11" s="11">
-        <v>38400</v>
+        <v>38300</v>
+      </c>
+      <c r="JI11" s="11">
+        <v>33600</v>
       </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5604,10 +5616,13 @@
         <v>0.107</v>
       </c>
       <c r="JH12" s="12">
-        <v>0.1</v>
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="JI12" s="12">
+        <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6408,10 +6423,13 @@
         <v>315900</v>
       </c>
       <c r="JH13" s="11">
-        <v>331500</v>
+        <v>331400</v>
+      </c>
+      <c r="JI13" s="11">
+        <v>333500</v>
       </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7214,8 +7232,11 @@
       <c r="JH14" s="11">
         <v>70900</v>
       </c>
+      <c r="JI14" s="11">
+        <v>71600</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8016,10 +8037,13 @@
         <v>255100</v>
       </c>
       <c r="JH15" s="11">
-        <v>260600</v>
+        <v>260500</v>
+      </c>
+      <c r="JI15" s="11">
+        <v>261900</v>
       </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8820,10 +8844,13 @@
         <v>197900</v>
       </c>
       <c r="JH16" s="11">
-        <v>200500</v>
+        <v>200400</v>
+      </c>
+      <c r="JI16" s="11">
+        <v>199400</v>
       </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9624,10 +9651,13 @@
         <v>35000</v>
       </c>
       <c r="JH17" s="11">
-        <v>34900</v>
+        <v>34800</v>
+      </c>
+      <c r="JI17" s="11">
+        <v>35000</v>
       </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10430,8 +10460,11 @@
       <c r="JH18" s="11">
         <v>22300</v>
       </c>
+      <c r="JI18" s="11">
+        <v>22600</v>
+      </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11234,8 +11267,11 @@
       <c r="JH19" s="11">
         <v>7300</v>
       </c>
+      <c r="JI19" s="11">
+        <v>7300</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -12038,8 +12074,11 @@
       <c r="JH20" s="11">
         <v>15000</v>
       </c>
+      <c r="JI20" s="11">
+        <v>15300</v>
+      </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -12840,10 +12879,13 @@
         <v>12500</v>
       </c>
       <c r="JH21" s="11">
-        <v>12600</v>
+        <v>12500</v>
+      </c>
+      <c r="JI21" s="11">
+        <v>12400</v>
       </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -13646,8 +13688,11 @@
       <c r="JH22" s="11">
         <v>4500</v>
       </c>
+      <c r="JI22" s="11">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -14448,10 +14493,13 @@
         <v>8000</v>
       </c>
       <c r="JH23" s="11">
-        <v>8100</v>
+        <v>8000</v>
+      </c>
+      <c r="JI23" s="11">
+        <v>7900</v>
       </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -15254,8 +15302,11 @@
       <c r="JH24" s="11">
         <v>4900</v>
       </c>
+      <c r="JI24" s="11">
+        <v>5000</v>
+      </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -16058,8 +16109,11 @@
       <c r="JH25" s="11">
         <v>225700</v>
       </c>
+      <c r="JI25" s="11">
+        <v>226900</v>
+      </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -16862,8 +16916,11 @@
       <c r="JH26" s="11">
         <v>165600</v>
       </c>
+      <c r="JI26" s="11">
+        <v>164400</v>
+      </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -17664,10 +17721,13 @@
         <v>55200</v>
       </c>
       <c r="JH27" s="11">
-        <v>55000</v>
+        <v>55200</v>
+      </c>
+      <c r="JI27" s="11">
+        <v>54900</v>
       </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -18470,8 +18530,11 @@
       <c r="JH28" s="11">
         <v>7500</v>
       </c>
+      <c r="JI28" s="11">
+        <v>7400</v>
+      </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -19272,10 +19335,13 @@
         <v>31400</v>
       </c>
       <c r="JH29" s="11">
-        <v>31100</v>
+        <v>31200</v>
+      </c>
+      <c r="JI29" s="11">
+        <v>31200</v>
       </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -20078,8 +20144,11 @@
       <c r="JH30" s="11">
         <v>6700</v>
       </c>
+      <c r="JI30" s="11">
+        <v>6600</v>
+      </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -20882,8 +20951,11 @@
       <c r="JH31" s="11">
         <v>2500</v>
       </c>
+      <c r="JI31" s="11">
+        <v>2400</v>
+      </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -21686,8 +21758,11 @@
       <c r="JH32" s="11">
         <v>7200</v>
       </c>
+      <c r="JI32" s="11">
+        <v>7500</v>
+      </c>
     </row>
-    <row r="33" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -22490,8 +22565,11 @@
       <c r="JH33" s="11">
         <v>1600</v>
       </c>
+      <c r="JI33" s="11">
+        <v>1600</v>
+      </c>
     </row>
-    <row r="34" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>34</v>
       </c>
@@ -23292,10 +23370,13 @@
         <v>16300</v>
       </c>
       <c r="JH34" s="11">
-        <v>16400</v>
+        <v>16500</v>
+      </c>
+      <c r="JI34" s="11">
+        <v>16300</v>
       </c>
     </row>
-    <row r="35" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>35</v>
       </c>
@@ -24098,8 +24179,11 @@
       <c r="JH35" s="11">
         <v>1600</v>
       </c>
+      <c r="JI35" s="11">
+        <v>1600</v>
+      </c>
     </row>
-    <row r="36" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>36</v>
       </c>
@@ -24902,8 +24986,11 @@
       <c r="JH36" s="11">
         <v>7100</v>
       </c>
+      <c r="JI36" s="11">
+        <v>7200</v>
+      </c>
     </row>
-    <row r="37" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>37</v>
       </c>
@@ -25706,8 +25793,11 @@
       <c r="JH37" s="11">
         <v>4000</v>
       </c>
+      <c r="JI37" s="11">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="38" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>38</v>
       </c>
@@ -26510,8 +26600,11 @@
       <c r="JH38" s="11">
         <v>3100</v>
       </c>
+      <c r="JI38" s="11">
+        <v>3200</v>
+      </c>
     </row>
-    <row r="39" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>39</v>
       </c>
@@ -27312,10 +27405,13 @@
         <v>26600</v>
       </c>
       <c r="JH39" s="11">
-        <v>26900</v>
+        <v>26800</v>
+      </c>
+      <c r="JI39" s="11">
+        <v>27100</v>
       </c>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>40</v>
       </c>
@@ -28118,8 +28214,11 @@
       <c r="JH40" s="11">
         <v>10100</v>
       </c>
+      <c r="JI40" s="11">
+        <v>10100</v>
+      </c>
     </row>
-    <row r="41" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>41</v>
       </c>
@@ -28922,8 +29021,11 @@
       <c r="JH41" s="11">
         <v>2900</v>
       </c>
+      <c r="JI41" s="11">
+        <v>2900</v>
+      </c>
     </row>
-    <row r="42" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>42</v>
       </c>
@@ -29724,10 +29826,13 @@
         <v>13700</v>
       </c>
       <c r="JH42" s="11">
-        <v>13900</v>
+        <v>13800</v>
+      </c>
+      <c r="JI42" s="11">
+        <v>14100</v>
       </c>
     </row>
-    <row r="43" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>43</v>
       </c>
@@ -30528,10 +30633,13 @@
         <v>39300</v>
       </c>
       <c r="JH43" s="11">
-        <v>40300</v>
+        <v>39700</v>
+      </c>
+      <c r="JI43" s="11">
+        <v>39100</v>
       </c>
     </row>
-    <row r="44" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>44</v>
       </c>
@@ -31334,8 +31442,11 @@
       <c r="JH44" s="11">
         <v>1500</v>
       </c>
+      <c r="JI44" s="11">
+        <v>1600</v>
+      </c>
     </row>
-    <row r="45" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>45</v>
       </c>
@@ -32136,10 +32247,13 @@
         <v>37800</v>
       </c>
       <c r="JH45" s="11">
-        <v>38800</v>
+        <v>38200</v>
+      </c>
+      <c r="JI45" s="11">
+        <v>37500</v>
       </c>
     </row>
-    <row r="46" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>46</v>
       </c>
@@ -32942,8 +33056,11 @@
       <c r="JH46" s="11">
         <v>14600</v>
       </c>
+      <c r="JI46" s="11">
+        <v>14300</v>
+      </c>
     </row>
-    <row r="47" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>47</v>
       </c>
@@ -33746,8 +33863,11 @@
       <c r="JH47" s="11">
         <v>7800</v>
       </c>
+      <c r="JI47" s="11">
+        <v>7800</v>
+      </c>
     </row>
-    <row r="48" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>49</v>
       </c>
@@ -34548,10 +34668,13 @@
         <v>25600</v>
       </c>
       <c r="JH48" s="11">
-        <v>27000</v>
+        <v>27500</v>
+      </c>
+      <c r="JI48" s="11">
+        <v>26900</v>
       </c>
     </row>
-    <row r="49" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>50</v>
       </c>
@@ -35354,8 +35477,11 @@
       <c r="JH49" s="11">
         <v>2400</v>
       </c>
+      <c r="JI49" s="11">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="50" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>51</v>
       </c>
@@ -36156,10 +36282,13 @@
         <v>23200</v>
       </c>
       <c r="JH50" s="11">
-        <v>24600</v>
+        <v>25100</v>
+      </c>
+      <c r="JI50" s="11">
+        <v>24400</v>
       </c>
     </row>
-    <row r="51" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>53</v>
       </c>
@@ -36960,10 +37089,13 @@
         <v>20700</v>
       </c>
       <c r="JH51" s="11">
-        <v>22000</v>
+        <v>22500</v>
+      </c>
+      <c r="JI51" s="11">
+        <v>21800</v>
       </c>
     </row>
-    <row r="52" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>54</v>
       </c>
@@ -37404,10 +37536,13 @@
         <v>20500</v>
       </c>
       <c r="JH52" s="11">
-        <v>21700</v>
+        <v>22200</v>
+      </c>
+      <c r="JI52" s="11">
+        <v>21500</v>
       </c>
     </row>
-    <row r="53" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>56</v>
       </c>
@@ -38210,8 +38345,11 @@
       <c r="JH53" s="11">
         <v>7700</v>
       </c>
+      <c r="JI53" s="11">
+        <v>7600</v>
+      </c>
     </row>
-    <row r="54" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>57</v>
       </c>
@@ -39014,8 +39152,11 @@
       <c r="JH54" s="11">
         <v>60100</v>
       </c>
+      <c r="JI54" s="11">
+        <v>62500</v>
+      </c>
     </row>
-    <row r="55" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>58</v>
       </c>
@@ -39818,8 +39959,11 @@
       <c r="JH55" s="11">
         <v>11500</v>
       </c>
+      <c r="JI55" s="11">
+        <v>11500</v>
+      </c>
     </row>
-    <row r="56" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>59</v>
       </c>
@@ -40622,8 +40766,11 @@
       <c r="JH56" s="11">
         <v>8800</v>
       </c>
+      <c r="JI56" s="11">
+        <v>8800</v>
+      </c>
     </row>
-    <row r="57" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>60</v>
       </c>
@@ -41426,8 +41573,11 @@
       <c r="JH57" s="11">
         <v>2700</v>
       </c>
+      <c r="JI57" s="11">
+        <v>2700</v>
+      </c>
     </row>
-    <row r="58" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>61</v>
       </c>
@@ -42230,8 +42380,11 @@
       <c r="JH58" s="11">
         <v>48600</v>
       </c>
+      <c r="JI58" s="11">
+        <v>51000</v>
+      </c>
     </row>
-    <row r="59" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>62</v>
       </c>
@@ -43034,8 +43187,11 @@
       <c r="JH59" s="11">
         <v>9600</v>
       </c>
+      <c r="JI59" s="11">
+        <v>9800</v>
+      </c>
     </row>
-    <row r="60" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>63</v>
       </c>
@@ -43838,8 +43994,11 @@
       <c r="JH60" s="11">
         <v>1400</v>
       </c>
+      <c r="JI60" s="11">
+        <v>1600</v>
+      </c>
     </row>
-    <row r="61" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>64</v>
       </c>
@@ -44642,8 +44801,11 @@
       <c r="JH61" s="11">
         <v>8200</v>
       </c>
+      <c r="JI61" s="11">
+        <v>8200</v>
+      </c>
     </row>
-    <row r="62" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>65</v>
       </c>
@@ -45446,8 +45608,11 @@
       <c r="JH62" s="11">
         <v>39000</v>
       </c>
+      <c r="JI62" s="11">
+        <v>41200</v>
+      </c>
     </row>
-    <row r="63" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>66</v>
       </c>
@@ -46250,8 +46415,11 @@
       <c r="JH63" s="11">
         <v>24200</v>
       </c>
+      <c r="JI63" s="11">
+        <v>26500</v>
+      </c>
     </row>
-    <row r="64" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>67</v>
       </c>
@@ -47054,8 +47222,11 @@
       <c r="JH64" s="11">
         <v>14800</v>
       </c>
+      <c r="JI64" s="11">
+        <v>14700</v>
+      </c>
     </row>
-    <row r="65" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>68</v>
       </c>
@@ -47856,10 +48027,13 @@
         <v>10000</v>
       </c>
       <c r="JH65" s="11">
-        <v>10100</v>
+        <v>9900</v>
+      </c>
+      <c r="JI65" s="11">
+        <v>9800</v>
       </c>
     </row>
-    <row r="66" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>69</v>
       </c>
@@ -48660,10 +48834,13 @@
         <v>2700</v>
       </c>
       <c r="JH66" s="11">
-        <v>2600</v>
+        <v>2700</v>
+      </c>
+      <c r="JI66" s="11">
+        <v>2700</v>
       </c>
     </row>
-    <row r="67" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>70</v>
       </c>
@@ -49464,10 +49641,13 @@
         <v>2200</v>
       </c>
       <c r="JH67" s="11">
-        <v>2100</v>
+        <v>2200</v>
+      </c>
+      <c r="JI67" s="11">
+        <v>2200</v>
       </c>
     </row>
-    <row r="69" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
         <v>158</v>
       </c>
@@ -49480,7 +49660,7 @@
       <c r="H69" s="17"/>
       <c r="I69" s="16"/>
     </row>
-    <row r="70" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>16</v>
       </c>
@@ -49493,7 +49673,7 @@
       <c r="H70" s="14"/>
       <c r="I70" s="18"/>
     </row>
-    <row r="71" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>159</v>
       </c>
@@ -49506,7 +49686,7 @@
       <c r="H71" s="14"/>
       <c r="I71" s="18"/>
     </row>
-    <row r="72" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
         <v>160</v>
       </c>
@@ -49519,7 +49699,7 @@
       <c r="H72" s="14"/>
       <c r="I72" s="18"/>
     </row>
-    <row r="73" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>161</v>
       </c>
@@ -49532,7 +49712,7 @@
       <c r="H73" s="14"/>
       <c r="I73" s="18"/>
     </row>
-    <row r="74" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>162</v>
       </c>
@@ -49545,7 +49725,7 @@
       <c r="H74" s="14"/>
       <c r="I74" s="18"/>
     </row>
-    <row r="75" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>163</v>
       </c>
@@ -49558,7 +49738,7 @@
       <c r="H75" s="14"/>
       <c r="I75" s="18"/>
     </row>
-    <row r="76" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
         <v>164</v>
       </c>

--- a/lowe/edd/data/BAKE$HWS.xlsx
+++ b/lowe/edd/data/BAKE$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1517,7 +1517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI76"/>
+  <dimension ref="A1:JJ76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1534,12 +1534,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1567,12 +1567,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1585,7 +1585,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2390,11 +2390,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3198,10 +3201,13 @@
         <v>385900</v>
       </c>
       <c r="JI9" s="11">
-        <v>385100</v>
+        <v>386500</v>
+      </c>
+      <c r="JJ9" s="11">
+        <v>390100</v>
       </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -4005,10 +4011,13 @@
         <v>347500</v>
       </c>
       <c r="JI10" s="11">
-        <v>351500</v>
+        <v>353000</v>
+      </c>
+      <c r="JJ10" s="11">
+        <v>357800</v>
       </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4812,10 +4821,13 @@
         <v>38300</v>
       </c>
       <c r="JI11" s="11">
-        <v>33600</v>
+        <v>33500</v>
+      </c>
+      <c r="JJ11" s="11">
+        <v>32300</v>
       </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5621,8 +5633,11 @@
       <c r="JI12" s="12">
         <v>8.6999999999999994E-2</v>
       </c>
+      <c r="JJ12" s="12">
+        <v>8.3000000000000004E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6426,10 +6441,13 @@
         <v>331400</v>
       </c>
       <c r="JI13" s="11">
-        <v>333500</v>
+        <v>335200</v>
+      </c>
+      <c r="JJ13" s="11">
+        <v>340800</v>
       </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7235,8 +7253,11 @@
       <c r="JI14" s="11">
         <v>71600</v>
       </c>
+      <c r="JJ14" s="11">
+        <v>72800</v>
+      </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8040,10 +8061,13 @@
         <v>260500</v>
       </c>
       <c r="JI15" s="11">
-        <v>261900</v>
+        <v>263600</v>
+      </c>
+      <c r="JJ15" s="11">
+        <v>268000</v>
       </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8847,10 +8871,13 @@
         <v>200400</v>
       </c>
       <c r="JI16" s="11">
-        <v>199400</v>
+        <v>201100</v>
+      </c>
+      <c r="JJ16" s="11">
+        <v>204200</v>
       </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9654,10 +9681,13 @@
         <v>34800</v>
       </c>
       <c r="JI17" s="11">
-        <v>35000</v>
+        <v>35300</v>
+      </c>
+      <c r="JJ17" s="11">
+        <v>36100</v>
       </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10461,10 +10491,13 @@
         <v>22300</v>
       </c>
       <c r="JI18" s="11">
-        <v>22600</v>
+        <v>22700</v>
+      </c>
+      <c r="JJ18" s="11">
+        <v>23400</v>
       </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11268,10 +11301,13 @@
         <v>7300</v>
       </c>
       <c r="JI19" s="11">
+        <v>7400</v>
+      </c>
+      <c r="JJ19" s="11">
         <v>7300</v>
       </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -12077,8 +12113,11 @@
       <c r="JI20" s="11">
         <v>15300</v>
       </c>
+      <c r="JJ20" s="11">
+        <v>16100</v>
+      </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -12882,10 +12921,13 @@
         <v>12500</v>
       </c>
       <c r="JI21" s="11">
-        <v>12400</v>
+        <v>12600</v>
+      </c>
+      <c r="JJ21" s="11">
+        <v>12700</v>
       </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -13691,8 +13733,11 @@
       <c r="JI22" s="11">
         <v>4500</v>
       </c>
+      <c r="JJ22" s="11">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -14496,10 +14541,13 @@
         <v>8000</v>
       </c>
       <c r="JI23" s="11">
-        <v>7900</v>
+        <v>8100</v>
+      </c>
+      <c r="JJ23" s="11">
+        <v>8200</v>
       </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -15305,8 +15353,11 @@
       <c r="JI24" s="11">
         <v>5000</v>
       </c>
+      <c r="JJ24" s="11">
+        <v>5000</v>
+      </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -16110,10 +16161,13 @@
         <v>225700</v>
       </c>
       <c r="JI25" s="11">
-        <v>226900</v>
+        <v>228300</v>
+      </c>
+      <c r="JJ25" s="11">
+        <v>231900</v>
       </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -16917,10 +16971,13 @@
         <v>165600</v>
       </c>
       <c r="JI26" s="11">
-        <v>164400</v>
+        <v>165800</v>
+      </c>
+      <c r="JJ26" s="11">
+        <v>168100</v>
       </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -17724,10 +17781,13 @@
         <v>55200</v>
       </c>
       <c r="JI27" s="11">
-        <v>54900</v>
+        <v>55200</v>
+      </c>
+      <c r="JJ27" s="11">
+        <v>56400</v>
       </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -18531,10 +18591,13 @@
         <v>7500</v>
       </c>
       <c r="JI28" s="11">
-        <v>7400</v>
+        <v>7500</v>
+      </c>
+      <c r="JJ28" s="11">
+        <v>7500</v>
       </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -19338,10 +19401,13 @@
         <v>31200</v>
       </c>
       <c r="JI29" s="11">
-        <v>31200</v>
+        <v>31300</v>
+      </c>
+      <c r="JJ29" s="11">
+        <v>31900</v>
       </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -20145,10 +20211,13 @@
         <v>6700</v>
       </c>
       <c r="JI30" s="11">
-        <v>6600</v>
+        <v>6700</v>
+      </c>
+      <c r="JJ30" s="11">
+        <v>6700</v>
       </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -20954,8 +21023,11 @@
       <c r="JI31" s="11">
         <v>2400</v>
       </c>
+      <c r="JJ31" s="11">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -21761,8 +21833,11 @@
       <c r="JI32" s="11">
         <v>7500</v>
       </c>
+      <c r="JJ32" s="11">
+        <v>7800</v>
+      </c>
     </row>
-    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -22568,8 +22643,11 @@
       <c r="JI33" s="11">
         <v>1600</v>
       </c>
+      <c r="JJ33" s="11">
+        <v>1700</v>
+      </c>
     </row>
-    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>34</v>
       </c>
@@ -23373,10 +23451,13 @@
         <v>16500</v>
       </c>
       <c r="JI34" s="11">
-        <v>16300</v>
+        <v>16400</v>
+      </c>
+      <c r="JJ34" s="11">
+        <v>17000</v>
       </c>
     </row>
-    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>35</v>
       </c>
@@ -24182,8 +24263,11 @@
       <c r="JI35" s="11">
         <v>1600</v>
       </c>
+      <c r="JJ35" s="11">
+        <v>1600</v>
+      </c>
     </row>
-    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>36</v>
       </c>
@@ -24989,8 +25073,11 @@
       <c r="JI36" s="11">
         <v>7200</v>
       </c>
+      <c r="JJ36" s="11">
+        <v>7300</v>
+      </c>
     </row>
-    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>37</v>
       </c>
@@ -25796,8 +25883,11 @@
       <c r="JI37" s="11">
         <v>4000</v>
       </c>
+      <c r="JJ37" s="11">
+        <v>4100</v>
+      </c>
     </row>
-    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>38</v>
       </c>
@@ -26603,8 +26693,11 @@
       <c r="JI38" s="11">
         <v>3200</v>
       </c>
+      <c r="JJ38" s="11">
+        <v>3200</v>
+      </c>
     </row>
-    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>39</v>
       </c>
@@ -27408,10 +27501,13 @@
         <v>26800</v>
       </c>
       <c r="JI39" s="11">
-        <v>27100</v>
+        <v>27200</v>
+      </c>
+      <c r="JJ39" s="11">
+        <v>27500</v>
       </c>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>40</v>
       </c>
@@ -28217,8 +28313,11 @@
       <c r="JI40" s="11">
         <v>10100</v>
       </c>
+      <c r="JJ40" s="11">
+        <v>10200</v>
+      </c>
     </row>
-    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>41</v>
       </c>
@@ -29024,8 +29123,11 @@
       <c r="JI41" s="11">
         <v>2900</v>
       </c>
+      <c r="JJ41" s="11">
+        <v>2900</v>
+      </c>
     </row>
-    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>42</v>
       </c>
@@ -29829,10 +29931,13 @@
         <v>13800</v>
       </c>
       <c r="JI42" s="11">
-        <v>14100</v>
+        <v>14200</v>
+      </c>
+      <c r="JJ42" s="11">
+        <v>14400</v>
       </c>
     </row>
-    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>43</v>
       </c>
@@ -30636,10 +30741,13 @@
         <v>39700</v>
       </c>
       <c r="JI43" s="11">
-        <v>39100</v>
+        <v>39300</v>
+      </c>
+      <c r="JJ43" s="11">
+        <v>39400</v>
       </c>
     </row>
-    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>44</v>
       </c>
@@ -31445,8 +31553,11 @@
       <c r="JI44" s="11">
         <v>1600</v>
       </c>
+      <c r="JJ44" s="11">
+        <v>1700</v>
+      </c>
     </row>
-    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>45</v>
       </c>
@@ -32250,10 +32361,13 @@
         <v>38200</v>
       </c>
       <c r="JI45" s="11">
-        <v>37500</v>
+        <v>37700</v>
+      </c>
+      <c r="JJ45" s="11">
+        <v>37700</v>
       </c>
     </row>
-    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>46</v>
       </c>
@@ -33057,10 +33171,13 @@
         <v>14600</v>
       </c>
       <c r="JI46" s="11">
-        <v>14300</v>
+        <v>14400</v>
+      </c>
+      <c r="JJ46" s="11">
+        <v>14500</v>
       </c>
     </row>
-    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>47</v>
       </c>
@@ -33866,8 +33983,11 @@
       <c r="JI47" s="11">
         <v>7800</v>
       </c>
+      <c r="JJ47" s="11">
+        <v>7800</v>
+      </c>
     </row>
-    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>49</v>
       </c>
@@ -34671,10 +34791,13 @@
         <v>27500</v>
       </c>
       <c r="JI48" s="11">
-        <v>26900</v>
+        <v>27600</v>
+      </c>
+      <c r="JJ48" s="11">
+        <v>28200</v>
       </c>
     </row>
-    <row r="49" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>50</v>
       </c>
@@ -35480,8 +35603,11 @@
       <c r="JI49" s="11">
         <v>2500</v>
       </c>
+      <c r="JJ49" s="11">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="50" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>51</v>
       </c>
@@ -36285,10 +36411,13 @@
         <v>25100</v>
       </c>
       <c r="JI50" s="11">
-        <v>24400</v>
+        <v>25100</v>
+      </c>
+      <c r="JJ50" s="11">
+        <v>25700</v>
       </c>
     </row>
-    <row r="51" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>53</v>
       </c>
@@ -37092,10 +37221,13 @@
         <v>22500</v>
       </c>
       <c r="JI51" s="11">
-        <v>21800</v>
+        <v>22400</v>
+      </c>
+      <c r="JJ51" s="11">
+        <v>23000</v>
       </c>
     </row>
-    <row r="52" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>54</v>
       </c>
@@ -37539,10 +37671,13 @@
         <v>22200</v>
       </c>
       <c r="JI52" s="11">
-        <v>21500</v>
+        <v>22200</v>
+      </c>
+      <c r="JJ52" s="11">
+        <v>22700</v>
       </c>
     </row>
-    <row r="53" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>56</v>
       </c>
@@ -38346,10 +38481,13 @@
         <v>7700</v>
       </c>
       <c r="JI53" s="11">
-        <v>7600</v>
+        <v>7700</v>
+      </c>
+      <c r="JJ53" s="11">
+        <v>7700</v>
       </c>
     </row>
-    <row r="54" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>57</v>
       </c>
@@ -39155,8 +39293,11 @@
       <c r="JI54" s="11">
         <v>62500</v>
       </c>
+      <c r="JJ54" s="11">
+        <v>63800</v>
+      </c>
     </row>
-    <row r="55" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>58</v>
       </c>
@@ -39962,8 +40103,11 @@
       <c r="JI55" s="11">
         <v>11500</v>
       </c>
+      <c r="JJ55" s="11">
+        <v>11400</v>
+      </c>
     </row>
-    <row r="56" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>59</v>
       </c>
@@ -40769,8 +40913,11 @@
       <c r="JI56" s="11">
         <v>8800</v>
       </c>
+      <c r="JJ56" s="11">
+        <v>8800</v>
+      </c>
     </row>
-    <row r="57" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>60</v>
       </c>
@@ -41576,8 +41723,11 @@
       <c r="JI57" s="11">
         <v>2700</v>
       </c>
+      <c r="JJ57" s="11">
+        <v>2600</v>
+      </c>
     </row>
-    <row r="58" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>61</v>
       </c>
@@ -42383,8 +42533,11 @@
       <c r="JI58" s="11">
         <v>51000</v>
       </c>
+      <c r="JJ58" s="11">
+        <v>52400</v>
+      </c>
     </row>
-    <row r="59" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>62</v>
       </c>
@@ -43190,8 +43343,11 @@
       <c r="JI59" s="11">
         <v>9800</v>
       </c>
+      <c r="JJ59" s="11">
+        <v>9900</v>
+      </c>
     </row>
-    <row r="60" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>63</v>
       </c>
@@ -43997,8 +44153,11 @@
       <c r="JI60" s="11">
         <v>1600</v>
       </c>
+      <c r="JJ60" s="11">
+        <v>1700</v>
+      </c>
     </row>
-    <row r="61" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>64</v>
       </c>
@@ -44804,8 +44963,11 @@
       <c r="JI61" s="11">
         <v>8200</v>
       </c>
+      <c r="JJ61" s="11">
+        <v>8200</v>
+      </c>
     </row>
-    <row r="62" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>65</v>
       </c>
@@ -45611,8 +45773,11 @@
       <c r="JI62" s="11">
         <v>41200</v>
       </c>
+      <c r="JJ62" s="11">
+        <v>42500</v>
+      </c>
     </row>
-    <row r="63" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>66</v>
       </c>
@@ -46418,8 +46583,11 @@
       <c r="JI63" s="11">
         <v>26500</v>
       </c>
+      <c r="JJ63" s="11">
+        <v>27500</v>
+      </c>
     </row>
-    <row r="64" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>67</v>
       </c>
@@ -47225,8 +47393,11 @@
       <c r="JI64" s="11">
         <v>14700</v>
       </c>
+      <c r="JJ64" s="11">
+        <v>15000</v>
+      </c>
     </row>
-    <row r="65" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>68</v>
       </c>
@@ -48030,10 +48201,13 @@
         <v>9900</v>
       </c>
       <c r="JI65" s="11">
-        <v>9800</v>
+        <v>9900</v>
+      </c>
+      <c r="JJ65" s="11">
+        <v>10000</v>
       </c>
     </row>
-    <row r="66" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>69</v>
       </c>
@@ -48839,8 +49013,11 @@
       <c r="JI66" s="11">
         <v>2700</v>
       </c>
+      <c r="JJ66" s="11">
+        <v>2800</v>
+      </c>
     </row>
-    <row r="67" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>70</v>
       </c>
@@ -49644,10 +49821,13 @@
         <v>2200</v>
       </c>
       <c r="JI67" s="11">
+        <v>2100</v>
+      </c>
+      <c r="JJ67" s="11">
         <v>2200</v>
       </c>
     </row>
-    <row r="69" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
         <v>158</v>
       </c>
@@ -49660,7 +49840,7 @@
       <c r="H69" s="17"/>
       <c r="I69" s="16"/>
     </row>
-    <row r="70" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>16</v>
       </c>
@@ -49673,7 +49853,7 @@
       <c r="H70" s="14"/>
       <c r="I70" s="18"/>
     </row>
-    <row r="71" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>159</v>
       </c>
@@ -49686,7 +49866,7 @@
       <c r="H71" s="14"/>
       <c r="I71" s="18"/>
     </row>
-    <row r="72" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
         <v>160</v>
       </c>
@@ -49699,7 +49879,7 @@
       <c r="H72" s="14"/>
       <c r="I72" s="18"/>
     </row>
-    <row r="73" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>161</v>
       </c>
@@ -49712,7 +49892,7 @@
       <c r="H73" s="14"/>
       <c r="I73" s="18"/>
     </row>
-    <row r="74" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>162</v>
       </c>
@@ -49725,7 +49905,7 @@
       <c r="H74" s="14"/>
       <c r="I74" s="18"/>
     </row>
-    <row r="75" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>163</v>
       </c>
@@ -49738,7 +49918,7 @@
       <c r="H75" s="14"/>
       <c r="I75" s="18"/>
     </row>
-    <row r="76" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
         <v>164</v>
       </c>

--- a/lowe/edd/data/BAKE$HWS.xlsx
+++ b/lowe/edd/data/BAKE$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -362,19 +362,19 @@
     <t>70-710000</t>
   </si>
   <si>
-    <t xml:space="preserve">          Arts, Entertainment &amp; Recreation</t>
+    <t xml:space="preserve">        Arts, Entertainment &amp; Recreation</t>
   </si>
   <si>
     <t>70-720000</t>
   </si>
   <si>
-    <t xml:space="preserve">          Accommodation &amp; Food Services</t>
+    <t xml:space="preserve">        Accommodation &amp; Food Services</t>
   </si>
   <si>
     <t>70-722000</t>
   </si>
   <si>
-    <t xml:space="preserve">            Food Services &amp; Drinking Places</t>
+    <t xml:space="preserve">          Food Services &amp; Drinking Places</t>
   </si>
   <si>
     <t>722511, 722590</t>
@@ -1517,7 +1517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ76"/>
+  <dimension ref="A1:JL76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1534,12 +1534,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1567,12 +1567,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1585,7 +1585,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2393,11 +2393,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3204,10 +3210,16 @@
         <v>386500</v>
       </c>
       <c r="JJ9" s="11">
-        <v>390100</v>
+        <v>389800</v>
+      </c>
+      <c r="JK9" s="11">
+        <v>388200</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>378200</v>
       </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -4014,10 +4026,16 @@
         <v>353000</v>
       </c>
       <c r="JJ10" s="11">
-        <v>357800</v>
+        <v>357600</v>
+      </c>
+      <c r="JK10" s="11">
+        <v>359600</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>349200</v>
       </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4824,10 +4842,16 @@
         <v>33500</v>
       </c>
       <c r="JJ11" s="11">
-        <v>32300</v>
+        <v>32200</v>
+      </c>
+      <c r="JK11" s="11">
+        <v>28600</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>29000</v>
       </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5636,8 +5660,14 @@
       <c r="JJ12" s="12">
         <v>8.3000000000000004E-2</v>
       </c>
+      <c r="JK12" s="12">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>7.6999999999999999E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6444,10 +6474,16 @@
         <v>335200</v>
       </c>
       <c r="JJ13" s="11">
-        <v>340800</v>
+        <v>340700</v>
+      </c>
+      <c r="JK13" s="11">
+        <v>339600</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>325900</v>
       </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7256,8 +7292,14 @@
       <c r="JJ14" s="11">
         <v>72800</v>
       </c>
+      <c r="JK14" s="11">
+        <v>72100</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>59900</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8064,10 +8106,16 @@
         <v>263600</v>
       </c>
       <c r="JJ15" s="11">
-        <v>268000</v>
+        <v>267900</v>
+      </c>
+      <c r="JK15" s="11">
+        <v>267500</v>
+      </c>
+      <c r="JL15" s="11">
+        <v>266000</v>
       </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8876,8 +8924,14 @@
       <c r="JJ16" s="11">
         <v>204200</v>
       </c>
+      <c r="JK16" s="11">
+        <v>203200</v>
+      </c>
+      <c r="JL16" s="11">
+        <v>202400</v>
+      </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9686,8 +9740,14 @@
       <c r="JJ17" s="11">
         <v>36100</v>
       </c>
+      <c r="JK17" s="11">
+        <v>35500</v>
+      </c>
+      <c r="JL17" s="11">
+        <v>34800</v>
+      </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10494,10 +10554,16 @@
         <v>22700</v>
       </c>
       <c r="JJ18" s="11">
-        <v>23400</v>
+        <v>23500</v>
+      </c>
+      <c r="JK18" s="11">
+        <v>23100</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>22500</v>
       </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11304,10 +11370,16 @@
         <v>7400</v>
       </c>
       <c r="JJ19" s="11">
-        <v>7300</v>
+        <v>7400</v>
+      </c>
+      <c r="JK19" s="11">
+        <v>7100</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>7100</v>
       </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -12116,8 +12188,14 @@
       <c r="JJ20" s="11">
         <v>16100</v>
       </c>
+      <c r="JK20" s="11">
+        <v>16000</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>15400</v>
+      </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -12924,10 +13002,16 @@
         <v>12600</v>
       </c>
       <c r="JJ21" s="11">
-        <v>12700</v>
+        <v>12600</v>
+      </c>
+      <c r="JK21" s="11">
+        <v>12400</v>
+      </c>
+      <c r="JL21" s="11">
+        <v>12300</v>
       </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -13736,8 +13820,14 @@
       <c r="JJ22" s="11">
         <v>4500</v>
       </c>
+      <c r="JK22" s="11">
+        <v>4500</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>4400</v>
+      </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -14544,10 +14634,16 @@
         <v>8100</v>
       </c>
       <c r="JJ23" s="11">
-        <v>8200</v>
+        <v>8100</v>
+      </c>
+      <c r="JK23" s="11">
+        <v>7900</v>
+      </c>
+      <c r="JL23" s="11">
+        <v>7900</v>
       </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -15356,8 +15452,14 @@
       <c r="JJ24" s="11">
         <v>5000</v>
       </c>
+      <c r="JK24" s="11">
+        <v>4800</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>4800</v>
+      </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -16164,10 +16266,16 @@
         <v>228300</v>
       </c>
       <c r="JJ25" s="11">
-        <v>231900</v>
+        <v>231800</v>
+      </c>
+      <c r="JK25" s="11">
+        <v>232000</v>
+      </c>
+      <c r="JL25" s="11">
+        <v>231200</v>
       </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -16976,8 +17084,14 @@
       <c r="JJ26" s="11">
         <v>168100</v>
       </c>
+      <c r="JK26" s="11">
+        <v>167700</v>
+      </c>
+      <c r="JL26" s="11">
+        <v>167600</v>
+      </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -17784,10 +17898,16 @@
         <v>55200</v>
       </c>
       <c r="JJ27" s="11">
-        <v>56400</v>
+        <v>56300</v>
+      </c>
+      <c r="JK27" s="11">
+        <v>57400</v>
+      </c>
+      <c r="JL27" s="11">
+        <v>57700</v>
       </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -18596,8 +18716,14 @@
       <c r="JJ28" s="11">
         <v>7500</v>
       </c>
+      <c r="JK28" s="11">
+        <v>7500</v>
+      </c>
+      <c r="JL28" s="11">
+        <v>7500</v>
+      </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -19404,10 +19530,16 @@
         <v>31300</v>
       </c>
       <c r="JJ29" s="11">
-        <v>31900</v>
+        <v>31800</v>
+      </c>
+      <c r="JK29" s="11">
+        <v>32600</v>
+      </c>
+      <c r="JL29" s="11">
+        <v>32800</v>
       </c>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -20216,8 +20348,14 @@
       <c r="JJ30" s="11">
         <v>6700</v>
       </c>
+      <c r="JK30" s="11">
+        <v>6800</v>
+      </c>
+      <c r="JL30" s="11">
+        <v>6600</v>
+      </c>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -21026,8 +21164,14 @@
       <c r="JJ31" s="11">
         <v>2500</v>
       </c>
+      <c r="JK31" s="11">
+        <v>2700</v>
+      </c>
+      <c r="JL31" s="11">
+        <v>2800</v>
+      </c>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -21836,8 +21980,14 @@
       <c r="JJ32" s="11">
         <v>7800</v>
       </c>
+      <c r="JK32" s="11">
+        <v>8200</v>
+      </c>
+      <c r="JL32" s="11">
+        <v>8300</v>
+      </c>
     </row>
-    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -22646,8 +22796,14 @@
       <c r="JJ33" s="11">
         <v>1700</v>
       </c>
+      <c r="JK33" s="11">
+        <v>1800</v>
+      </c>
+      <c r="JL33" s="11">
+        <v>1900</v>
+      </c>
     </row>
-    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>34</v>
       </c>
@@ -23456,8 +23612,14 @@
       <c r="JJ34" s="11">
         <v>17000</v>
       </c>
+      <c r="JK34" s="11">
+        <v>17300</v>
+      </c>
+      <c r="JL34" s="11">
+        <v>17400</v>
+      </c>
     </row>
-    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>35</v>
       </c>
@@ -24266,8 +24428,14 @@
       <c r="JJ35" s="11">
         <v>1600</v>
       </c>
+      <c r="JK35" s="11">
+        <v>1600</v>
+      </c>
+      <c r="JL35" s="11">
+        <v>1600</v>
+      </c>
     </row>
-    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>36</v>
       </c>
@@ -25076,8 +25244,14 @@
       <c r="JJ36" s="11">
         <v>7300</v>
       </c>
+      <c r="JK36" s="11">
+        <v>7200</v>
+      </c>
+      <c r="JL36" s="11">
+        <v>7300</v>
+      </c>
     </row>
-    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>37</v>
       </c>
@@ -25886,8 +26060,14 @@
       <c r="JJ37" s="11">
         <v>4100</v>
       </c>
+      <c r="JK37" s="11">
+        <v>4000</v>
+      </c>
+      <c r="JL37" s="11">
+        <v>4100</v>
+      </c>
     </row>
-    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>38</v>
       </c>
@@ -26696,8 +26876,14 @@
       <c r="JJ38" s="11">
         <v>3200</v>
       </c>
+      <c r="JK38" s="11">
+        <v>3200</v>
+      </c>
+      <c r="JL38" s="11">
+        <v>3200</v>
+      </c>
     </row>
-    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>39</v>
       </c>
@@ -27504,10 +27690,16 @@
         <v>27200</v>
       </c>
       <c r="JJ39" s="11">
-        <v>27500</v>
+        <v>27600</v>
+      </c>
+      <c r="JK39" s="11">
+        <v>27600</v>
+      </c>
+      <c r="JL39" s="11">
+        <v>27300</v>
       </c>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>40</v>
       </c>
@@ -28316,8 +28508,14 @@
       <c r="JJ40" s="11">
         <v>10200</v>
       </c>
+      <c r="JK40" s="11">
+        <v>10300</v>
+      </c>
+      <c r="JL40" s="11">
+        <v>10500</v>
+      </c>
     </row>
-    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>41</v>
       </c>
@@ -29126,8 +29324,14 @@
       <c r="JJ41" s="11">
         <v>2900</v>
       </c>
+      <c r="JK41" s="11">
+        <v>2900</v>
+      </c>
+      <c r="JL41" s="11">
+        <v>2900</v>
+      </c>
     </row>
-    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>42</v>
       </c>
@@ -29934,10 +30138,16 @@
         <v>14200</v>
       </c>
       <c r="JJ42" s="11">
+        <v>14500</v>
+      </c>
+      <c r="JK42" s="11">
         <v>14400</v>
       </c>
+      <c r="JL42" s="11">
+        <v>13900</v>
+      </c>
     </row>
-    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>43</v>
       </c>
@@ -30744,10 +30954,16 @@
         <v>39300</v>
       </c>
       <c r="JJ43" s="11">
-        <v>39400</v>
+        <v>39500</v>
+      </c>
+      <c r="JK43" s="11">
+        <v>39700</v>
+      </c>
+      <c r="JL43" s="11">
+        <v>40100</v>
       </c>
     </row>
-    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>44</v>
       </c>
@@ -31556,8 +31772,14 @@
       <c r="JJ44" s="11">
         <v>1700</v>
       </c>
+      <c r="JK44" s="11">
+        <v>1700</v>
+      </c>
+      <c r="JL44" s="11">
+        <v>1700</v>
+      </c>
     </row>
-    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>45</v>
       </c>
@@ -32364,10 +32586,16 @@
         <v>37700</v>
       </c>
       <c r="JJ45" s="11">
-        <v>37700</v>
+        <v>37800</v>
+      </c>
+      <c r="JK45" s="11">
+        <v>38000</v>
+      </c>
+      <c r="JL45" s="11">
+        <v>38400</v>
       </c>
     </row>
-    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>46</v>
       </c>
@@ -33174,10 +33402,16 @@
         <v>14400</v>
       </c>
       <c r="JJ46" s="11">
-        <v>14500</v>
+        <v>14600</v>
+      </c>
+      <c r="JK46" s="11">
+        <v>14700</v>
+      </c>
+      <c r="JL46" s="11">
+        <v>14700</v>
       </c>
     </row>
-    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>47</v>
       </c>
@@ -33986,8 +34220,14 @@
       <c r="JJ47" s="11">
         <v>7800</v>
       </c>
+      <c r="JK47" s="11">
+        <v>7800</v>
+      </c>
+      <c r="JL47" s="11">
+        <v>7900</v>
+      </c>
     </row>
-    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>49</v>
       </c>
@@ -34794,10 +35034,16 @@
         <v>27600</v>
       </c>
       <c r="JJ48" s="11">
-        <v>28200</v>
+        <v>28100</v>
+      </c>
+      <c r="JK48" s="11">
+        <v>26500</v>
+      </c>
+      <c r="JL48" s="11">
+        <v>25900</v>
       </c>
     </row>
-    <row r="49" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>50</v>
       </c>
@@ -35606,8 +35852,14 @@
       <c r="JJ49" s="11">
         <v>2500</v>
       </c>
+      <c r="JK49" s="11">
+        <v>2500</v>
+      </c>
+      <c r="JL49" s="11">
+        <v>2600</v>
+      </c>
     </row>
-    <row r="50" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>51</v>
       </c>
@@ -36414,10 +36666,16 @@
         <v>25100</v>
       </c>
       <c r="JJ50" s="11">
-        <v>25700</v>
+        <v>25600</v>
+      </c>
+      <c r="JK50" s="11">
+        <v>24000</v>
+      </c>
+      <c r="JL50" s="11">
+        <v>23300</v>
       </c>
     </row>
-    <row r="51" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>53</v>
       </c>
@@ -37224,10 +37482,16 @@
         <v>22400</v>
       </c>
       <c r="JJ51" s="11">
-        <v>23000</v>
+        <v>22800</v>
+      </c>
+      <c r="JK51" s="11">
+        <v>21300</v>
+      </c>
+      <c r="JL51" s="11">
+        <v>20800</v>
       </c>
     </row>
-    <row r="52" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>54</v>
       </c>
@@ -37674,10 +37938,16 @@
         <v>22200</v>
       </c>
       <c r="JJ52" s="11">
-        <v>22700</v>
+        <v>22600</v>
+      </c>
+      <c r="JK52" s="11">
+        <v>21000</v>
+      </c>
+      <c r="JL52" s="11">
+        <v>20500</v>
       </c>
     </row>
-    <row r="53" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>56</v>
       </c>
@@ -38486,8 +38756,14 @@
       <c r="JJ53" s="11">
         <v>7700</v>
       </c>
+      <c r="JK53" s="11">
+        <v>7700</v>
+      </c>
+      <c r="JL53" s="11">
+        <v>7700</v>
+      </c>
     </row>
-    <row r="54" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>57</v>
       </c>
@@ -39294,10 +39570,16 @@
         <v>62500</v>
       </c>
       <c r="JJ54" s="11">
-        <v>63800</v>
+        <v>63700</v>
+      </c>
+      <c r="JK54" s="11">
+        <v>64300</v>
+      </c>
+      <c r="JL54" s="11">
+        <v>63600</v>
       </c>
     </row>
-    <row r="55" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>58</v>
       </c>
@@ -40106,8 +40388,14 @@
       <c r="JJ55" s="11">
         <v>11400</v>
       </c>
+      <c r="JK55" s="11">
+        <v>11600</v>
+      </c>
+      <c r="JL55" s="11">
+        <v>11600</v>
+      </c>
     </row>
-    <row r="56" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>59</v>
       </c>
@@ -40916,8 +41204,14 @@
       <c r="JJ56" s="11">
         <v>8800</v>
       </c>
+      <c r="JK56" s="11">
+        <v>8900</v>
+      </c>
+      <c r="JL56" s="11">
+        <v>8900</v>
+      </c>
     </row>
-    <row r="57" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>60</v>
       </c>
@@ -41726,8 +42020,14 @@
       <c r="JJ57" s="11">
         <v>2600</v>
       </c>
+      <c r="JK57" s="11">
+        <v>2700</v>
+      </c>
+      <c r="JL57" s="11">
+        <v>2700</v>
+      </c>
     </row>
-    <row r="58" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>61</v>
       </c>
@@ -42534,10 +42834,16 @@
         <v>51000</v>
       </c>
       <c r="JJ58" s="11">
-        <v>52400</v>
+        <v>52300</v>
+      </c>
+      <c r="JK58" s="11">
+        <v>52700</v>
+      </c>
+      <c r="JL58" s="11">
+        <v>52000</v>
       </c>
     </row>
-    <row r="59" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>62</v>
       </c>
@@ -43346,8 +43652,14 @@
       <c r="JJ59" s="11">
         <v>9900</v>
       </c>
+      <c r="JK59" s="11">
+        <v>9900</v>
+      </c>
+      <c r="JL59" s="11">
+        <v>9800</v>
+      </c>
     </row>
-    <row r="60" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>63</v>
       </c>
@@ -44156,8 +44468,14 @@
       <c r="JJ60" s="11">
         <v>1700</v>
       </c>
+      <c r="JK60" s="11">
+        <v>1700</v>
+      </c>
+      <c r="JL60" s="11">
+        <v>1700</v>
+      </c>
     </row>
-    <row r="61" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>64</v>
       </c>
@@ -44966,8 +45284,14 @@
       <c r="JJ61" s="11">
         <v>8200</v>
       </c>
+      <c r="JK61" s="11">
+        <v>8200</v>
+      </c>
+      <c r="JL61" s="11">
+        <v>8100</v>
+      </c>
     </row>
-    <row r="62" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>65</v>
       </c>
@@ -45774,10 +46098,16 @@
         <v>41200</v>
       </c>
       <c r="JJ62" s="11">
-        <v>42500</v>
+        <v>42400</v>
+      </c>
+      <c r="JK62" s="11">
+        <v>42800</v>
+      </c>
+      <c r="JL62" s="11">
+        <v>42200</v>
       </c>
     </row>
-    <row r="63" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>66</v>
       </c>
@@ -46584,10 +46914,16 @@
         <v>26500</v>
       </c>
       <c r="JJ63" s="11">
-        <v>27500</v>
+        <v>27400</v>
+      </c>
+      <c r="JK63" s="11">
+        <v>28300</v>
+      </c>
+      <c r="JL63" s="11">
+        <v>27800</v>
       </c>
     </row>
-    <row r="64" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>67</v>
       </c>
@@ -47396,8 +47732,14 @@
       <c r="JJ64" s="11">
         <v>15000</v>
       </c>
+      <c r="JK64" s="11">
+        <v>14500</v>
+      </c>
+      <c r="JL64" s="11">
+        <v>14400</v>
+      </c>
     </row>
-    <row r="65" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>68</v>
       </c>
@@ -48204,10 +48546,16 @@
         <v>9900</v>
       </c>
       <c r="JJ65" s="11">
-        <v>10000</v>
+        <v>10300</v>
+      </c>
+      <c r="JK65" s="11">
+        <v>9800</v>
+      </c>
+      <c r="JL65" s="11">
+        <v>9600</v>
       </c>
     </row>
-    <row r="66" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>69</v>
       </c>
@@ -49014,10 +49362,16 @@
         <v>2700</v>
       </c>
       <c r="JJ66" s="11">
-        <v>2800</v>
+        <v>2500</v>
+      </c>
+      <c r="JK66" s="11">
+        <v>2700</v>
+      </c>
+      <c r="JL66" s="11">
+        <v>2700</v>
       </c>
     </row>
-    <row r="67" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>70</v>
       </c>
@@ -49826,8 +50180,14 @@
       <c r="JJ67" s="11">
         <v>2200</v>
       </c>
+      <c r="JK67" s="11">
+        <v>2000</v>
+      </c>
+      <c r="JL67" s="11">
+        <v>2100</v>
+      </c>
     </row>
-    <row r="69" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
         <v>158</v>
       </c>
@@ -49840,7 +50200,7 @@
       <c r="H69" s="17"/>
       <c r="I69" s="16"/>
     </row>
-    <row r="70" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>16</v>
       </c>
@@ -49853,7 +50213,7 @@
       <c r="H70" s="14"/>
       <c r="I70" s="18"/>
     </row>
-    <row r="71" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>159</v>
       </c>
@@ -49866,7 +50226,7 @@
       <c r="H71" s="14"/>
       <c r="I71" s="18"/>
     </row>
-    <row r="72" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
         <v>160</v>
       </c>
@@ -49879,7 +50239,7 @@
       <c r="H72" s="14"/>
       <c r="I72" s="18"/>
     </row>
-    <row r="73" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>161</v>
       </c>
@@ -49892,7 +50252,7 @@
       <c r="H73" s="14"/>
       <c r="I73" s="18"/>
     </row>
-    <row r="74" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>162</v>
       </c>
@@ -49905,7 +50265,7 @@
       <c r="H74" s="14"/>
       <c r="I74" s="18"/>
     </row>
-    <row r="75" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>163</v>
       </c>
@@ -49918,7 +50278,7 @@
       <c r="H75" s="14"/>
       <c r="I75" s="18"/>
     </row>
-    <row r="76" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
         <v>164</v>
       </c>
